--- a/Data_Files/BRAVE_RNASeq_metadata.xlsx
+++ b/Data_Files/BRAVE_RNASeq_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\BRAVE_Kids\RNA_Sequencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A19BFD3-5FB9-40C2-89C9-4F7AA047FDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B23F0C-0433-47D7-A19E-AB4B6A3500AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19695" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20088" uniqueCount="850">
   <si>
     <t>age</t>
   </si>
@@ -2568,6 +2568,9 @@
   </si>
   <si>
     <t>B.1.1.304</t>
+  </si>
+  <si>
+    <t>timing_neut_dx</t>
   </si>
 </sst>
 </file>
@@ -3424,11 +3427,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX971"/>
+  <dimension ref="A1:AY971"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3451,7 @@
     <col min="13" max="13" width="24.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.28515625" style="4" customWidth="1"/>
     <col min="15" max="15" width="9" style="4" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="2" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="4" customWidth="1"/>
     <col min="18" max="18" width="10.85546875" style="4" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" style="4" customWidth="1"/>
@@ -3457,7 +3460,7 @@
     <col min="22" max="22" width="9.5703125" style="4" customWidth="1"/>
     <col min="23" max="23" width="9.85546875" style="4" customWidth="1"/>
     <col min="24" max="24" width="7.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="4" customWidth="1"/>
     <col min="26" max="26" width="7.42578125" style="4" customWidth="1"/>
     <col min="27" max="27" width="9.5703125" style="4" customWidth="1"/>
     <col min="28" max="28" width="4" style="4" customWidth="1"/>
@@ -3482,10 +3485,11 @@
     <col min="48" max="48" width="10" style="2" customWidth="1"/>
     <col min="49" max="49" width="19.140625" style="4" customWidth="1"/>
     <col min="50" max="50" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="8.85546875" style="7"/>
+    <col min="51" max="51" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>337</v>
       </c>
@@ -3636,8 +3640,11 @@
       <c r="AX1" s="3" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY1" s="3" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>413</v>
       </c>
@@ -3788,8 +3795,11 @@
       <c r="AX2" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>591</v>
       </c>
@@ -3940,8 +3950,11 @@
       <c r="AX3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>470</v>
       </c>
@@ -4092,8 +4105,11 @@
       <c r="AX4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>654</v>
       </c>
@@ -4244,8 +4260,11 @@
       <c r="AX5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>716</v>
       </c>
@@ -4396,8 +4415,11 @@
       <c r="AX6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>415</v>
       </c>
@@ -4548,8 +4570,11 @@
       <c r="AX7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>593</v>
       </c>
@@ -4700,8 +4725,11 @@
       <c r="AX8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>409</v>
       </c>
@@ -4852,8 +4880,11 @@
       <c r="AX9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>587</v>
       </c>
@@ -5004,8 +5035,11 @@
       <c r="AX10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>527</v>
       </c>
@@ -5156,8 +5190,11 @@
       <c r="AX11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>495</v>
       </c>
@@ -5308,8 +5345,11 @@
       <c r="AX12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>681</v>
       </c>
@@ -5460,8 +5500,11 @@
       <c r="AX13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>420</v>
       </c>
@@ -5612,8 +5655,11 @@
       <c r="AX14" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="15" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY14" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>600</v>
       </c>
@@ -5764,8 +5810,11 @@
       <c r="AX15" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY15" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>353</v>
       </c>
@@ -5916,8 +5965,11 @@
       <c r="AX16" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>521</v>
       </c>
@@ -6068,8 +6120,11 @@
       <c r="AX17" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY17" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>431</v>
       </c>
@@ -6220,8 +6275,11 @@
       <c r="AX18" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY18" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>610</v>
       </c>
@@ -6372,8 +6430,11 @@
       <c r="AX19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY19" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>347</v>
       </c>
@@ -6524,8 +6585,11 @@
       <c r="AX20" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>516</v>
       </c>
@@ -6676,8 +6740,11 @@
       <c r="AX21" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY21" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>392</v>
       </c>
@@ -6828,8 +6895,11 @@
       <c r="AX22" s="1">
         <v>476</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY22" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>569</v>
       </c>
@@ -6980,8 +7050,11 @@
       <c r="AX23" s="1">
         <v>476</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY23" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>705</v>
       </c>
@@ -7132,8 +7205,11 @@
       <c r="AX24" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>694</v>
       </c>
@@ -7284,8 +7360,11 @@
       <c r="AX25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>391</v>
       </c>
@@ -7436,8 +7515,11 @@
       <c r="AX26" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>568</v>
       </c>
@@ -7588,8 +7670,11 @@
       <c r="AX27" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>492</v>
       </c>
@@ -7740,8 +7825,11 @@
       <c r="AX28" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY28" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>678</v>
       </c>
@@ -7892,8 +7980,11 @@
       <c r="AX29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>487</v>
       </c>
@@ -8044,8 +8135,11 @@
       <c r="AX30" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>673</v>
       </c>
@@ -8196,8 +8290,11 @@
       <c r="AX31" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>525</v>
       </c>
@@ -8348,8 +8445,11 @@
       <c r="AX32" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>496</v>
       </c>
@@ -8500,8 +8600,11 @@
       <c r="AX33" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>682</v>
       </c>
@@ -8652,8 +8755,11 @@
       <c r="AX34" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>481</v>
       </c>
@@ -8804,8 +8910,11 @@
       <c r="AX35" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>666</v>
       </c>
@@ -8956,8 +9065,11 @@
       <c r="AX36" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>352</v>
       </c>
@@ -9108,8 +9220,11 @@
       <c r="AX37" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY37" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>520</v>
       </c>
@@ -9260,8 +9375,11 @@
       <c r="AX38" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY38" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>372</v>
       </c>
@@ -9412,8 +9530,11 @@
       <c r="AX39" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY39" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>549</v>
       </c>
@@ -9564,8 +9685,11 @@
       <c r="AX40" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY40" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>524</v>
       </c>
@@ -9716,8 +9840,11 @@
       <c r="AX41" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>430</v>
       </c>
@@ -9868,8 +9995,11 @@
       <c r="AX42" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY42" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>609</v>
       </c>
@@ -10020,8 +10150,11 @@
       <c r="AX43" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY43" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>534</v>
       </c>
@@ -10172,8 +10305,11 @@
       <c r="AX44" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY44" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>343</v>
       </c>
@@ -10324,8 +10460,11 @@
       <c r="AX45" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>512</v>
       </c>
@@ -10476,8 +10615,11 @@
       <c r="AX46" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>501</v>
       </c>
@@ -10628,8 +10770,11 @@
       <c r="AX47" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>686</v>
       </c>
@@ -10780,8 +10925,11 @@
       <c r="AX48" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>360</v>
       </c>
@@ -10932,8 +11080,11 @@
       <c r="AX49" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY49" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>536</v>
       </c>
@@ -11084,8 +11235,11 @@
       <c r="AX50" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY50" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>443</v>
       </c>
@@ -11236,8 +11390,11 @@
       <c r="AX51" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY51" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>622</v>
       </c>
@@ -11388,8 +11545,11 @@
       <c r="AX52" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY52" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>367</v>
       </c>
@@ -11540,8 +11700,11 @@
       <c r="AX53" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="54" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>544</v>
       </c>
@@ -11692,8 +11855,11 @@
       <c r="AX54" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY54" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>454</v>
       </c>
@@ -11844,8 +12010,11 @@
       <c r="AX55" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>637</v>
       </c>
@@ -11996,8 +12165,11 @@
       <c r="AX56" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY56" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>338</v>
       </c>
@@ -12148,8 +12320,11 @@
       <c r="AX57" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY57" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>507</v>
       </c>
@@ -12300,8 +12475,11 @@
       <c r="AX58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>462</v>
       </c>
@@ -12452,8 +12630,11 @@
       <c r="AX59" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY59" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>645</v>
       </c>
@@ -12604,8 +12785,11 @@
       <c r="AX60" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY60" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>427</v>
       </c>
@@ -12756,8 +12940,11 @@
       <c r="AX61" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY61" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>606</v>
       </c>
@@ -12908,8 +13095,11 @@
       <c r="AX62" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY62" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>475</v>
       </c>
@@ -13060,8 +13250,11 @@
       <c r="AX63" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY63" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>661</v>
       </c>
@@ -13212,8 +13405,11 @@
       <c r="AX64" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY64" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>376</v>
       </c>
@@ -13364,8 +13560,11 @@
       <c r="AX65" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="66" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY65" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>553</v>
       </c>
@@ -13516,8 +13715,11 @@
       <c r="AX66" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY66" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>472</v>
       </c>
@@ -13668,8 +13870,11 @@
       <c r="AX67" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY67" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>658</v>
       </c>
@@ -13820,8 +14025,11 @@
       <c r="AX68" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY68" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>418</v>
       </c>
@@ -13972,8 +14180,11 @@
       <c r="AX69" s="1">
         <v>359</v>
       </c>
-    </row>
-    <row r="70" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY69" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>598</v>
       </c>
@@ -14124,8 +14335,11 @@
       <c r="AX70" s="1">
         <v>359</v>
       </c>
-    </row>
-    <row r="71" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY70" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>714</v>
       </c>
@@ -14276,8 +14490,11 @@
       <c r="AX71" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY71" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>448</v>
       </c>
@@ -14428,8 +14645,11 @@
       <c r="AX72" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY72" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>629</v>
       </c>
@@ -14580,8 +14800,11 @@
       <c r="AX73" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY73" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>414</v>
       </c>
@@ -14732,8 +14955,11 @@
       <c r="AX74" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY74" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>592</v>
       </c>
@@ -14884,8 +15110,11 @@
       <c r="AX75" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="76" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY75" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>494</v>
       </c>
@@ -15036,8 +15265,11 @@
       <c r="AX76" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="77" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>680</v>
       </c>
@@ -15188,8 +15420,11 @@
       <c r="AX77" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="78" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY77" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>692</v>
       </c>
@@ -15340,8 +15575,11 @@
       <c r="AX78" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="79" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY78" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>693</v>
       </c>
@@ -15492,8 +15730,11 @@
       <c r="AX79" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="80" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY79" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>398</v>
       </c>
@@ -15644,8 +15885,11 @@
       <c r="AX80" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY80" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>575</v>
       </c>
@@ -15796,8 +16040,11 @@
       <c r="AX81" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY81" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>483</v>
       </c>
@@ -15948,8 +16195,11 @@
       <c r="AX82" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY82" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>668</v>
       </c>
@@ -16100,8 +16350,11 @@
       <c r="AX83" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY83" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>342</v>
       </c>
@@ -16252,8 +16505,11 @@
       <c r="AX84" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY84" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>511</v>
       </c>
@@ -16404,8 +16660,11 @@
       <c r="AX85" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY85" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>377</v>
       </c>
@@ -16556,8 +16815,11 @@
       <c r="AX86" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY86" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>554</v>
       </c>
@@ -16708,8 +16970,11 @@
       <c r="AX87" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY87" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>385</v>
       </c>
@@ -16860,8 +17125,11 @@
       <c r="AX88" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY88" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>562</v>
       </c>
@@ -17012,8 +17280,11 @@
       <c r="AX89" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY89" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>441</v>
       </c>
@@ -17164,8 +17435,11 @@
       <c r="AX90" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="91" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY90" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>620</v>
       </c>
@@ -17316,8 +17590,11 @@
       <c r="AX91" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="92" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY91" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>344</v>
       </c>
@@ -17468,8 +17745,11 @@
       <c r="AX92" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY92" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>513</v>
       </c>
@@ -17620,8 +17900,11 @@
       <c r="AX93" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY93" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>349</v>
       </c>
@@ -17772,8 +18055,11 @@
       <c r="AX94" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY94" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>518</v>
       </c>
@@ -17924,8 +18210,11 @@
       <c r="AX95" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY95" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>444</v>
       </c>
@@ -18076,8 +18365,11 @@
       <c r="AX96" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY96" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>623</v>
       </c>
@@ -18228,8 +18520,11 @@
       <c r="AX97" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="98" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY97" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>449</v>
       </c>
@@ -18380,8 +18675,11 @@
       <c r="AX98" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="99" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY98" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>632</v>
       </c>
@@ -18532,8 +18830,11 @@
       <c r="AX99" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY99" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>528</v>
       </c>
@@ -18684,8 +18985,11 @@
       <c r="AX100" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY100" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>466</v>
       </c>
@@ -18836,8 +19140,11 @@
       <c r="AX101" s="1">
         <v>1418</v>
       </c>
-    </row>
-    <row r="102" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY101" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>649</v>
       </c>
@@ -18988,8 +19295,11 @@
       <c r="AX102" s="1">
         <v>1418</v>
       </c>
-    </row>
-    <row r="103" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY102" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>422</v>
       </c>
@@ -19140,8 +19450,11 @@
       <c r="AX103" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="104" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY103" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>602</v>
       </c>
@@ -19292,8 +19605,11 @@
       <c r="AX104" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="105" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY104" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>659</v>
       </c>
@@ -19444,8 +19760,11 @@
       <c r="AX105" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY105" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>720</v>
       </c>
@@ -19596,8 +19915,11 @@
       <c r="AX106" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY106" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>351</v>
       </c>
@@ -19748,8 +20070,11 @@
       <c r="AX107" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="108" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY107" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>491</v>
       </c>
@@ -19900,8 +20225,11 @@
       <c r="AX108" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY108" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>677</v>
       </c>
@@ -20052,8 +20380,11 @@
       <c r="AX109" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="110" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY109" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>490</v>
       </c>
@@ -20204,8 +20535,11 @@
       <c r="AX110" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="111" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY110" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>676</v>
       </c>
@@ -20356,8 +20690,11 @@
       <c r="AX111" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY111" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>403</v>
       </c>
@@ -20508,8 +20845,11 @@
       <c r="AX112" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="113" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY112" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>581</v>
       </c>
@@ -20660,8 +21000,11 @@
       <c r="AX113" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="114" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY113" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>362</v>
       </c>
@@ -20812,8 +21155,11 @@
       <c r="AX114" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="115" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY114" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>538</v>
       </c>
@@ -20964,8 +21310,11 @@
       <c r="AX115" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="116" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY115" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>710</v>
       </c>
@@ -21113,11 +21462,14 @@
       <c r="AW116" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AX116" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX116" s="1">
+        <v>98</v>
+      </c>
+      <c r="AY116" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>474</v>
       </c>
@@ -21268,8 +21620,11 @@
       <c r="AX117" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="118" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY117" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>660</v>
       </c>
@@ -21420,8 +21775,11 @@
       <c r="AX118" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="119" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY118" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>354</v>
       </c>
@@ -21572,8 +21930,11 @@
       <c r="AX119" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="120" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY119" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>522</v>
       </c>
@@ -21724,8 +22085,11 @@
       <c r="AX120" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="121" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY120" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>526</v>
       </c>
@@ -21876,8 +22240,11 @@
       <c r="AX121" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="122" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY121" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>371</v>
       </c>
@@ -22028,8 +22395,11 @@
       <c r="AX122" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="123" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY122" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>548</v>
       </c>
@@ -22180,8 +22550,11 @@
       <c r="AX123" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="124" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY123" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>713</v>
       </c>
@@ -22329,11 +22702,14 @@
       <c r="AW124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AX124" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX124" s="1">
+        <v>97</v>
+      </c>
+      <c r="AY124" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>402</v>
       </c>
@@ -22484,8 +22860,11 @@
       <c r="AX125" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="126" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY125" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>580</v>
       </c>
@@ -22636,8 +23015,11 @@
       <c r="AX126" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="127" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY126" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>399</v>
       </c>
@@ -22788,8 +23170,11 @@
       <c r="AX127" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="128" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY127" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>576</v>
       </c>
@@ -22940,8 +23325,11 @@
       <c r="AX128" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY128" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>380</v>
       </c>
@@ -23092,8 +23480,11 @@
       <c r="AX129" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="130" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY129" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>557</v>
       </c>
@@ -23244,8 +23635,11 @@
       <c r="AX130" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="131" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY130" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>523</v>
       </c>
@@ -23396,8 +23790,11 @@
       <c r="AX131" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="132" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY131" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>479</v>
       </c>
@@ -23548,8 +23945,11 @@
       <c r="AX132" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="133" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY132" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>429</v>
       </c>
@@ -23700,8 +24100,11 @@
       <c r="AX133" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="134" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY133" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="134" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>608</v>
       </c>
@@ -23852,8 +24255,11 @@
       <c r="AX134" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="135" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY134" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="135" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>460</v>
       </c>
@@ -24004,8 +24410,11 @@
       <c r="AX135" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY135" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>643</v>
       </c>
@@ -24156,8 +24565,11 @@
       <c r="AX136" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="137" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY136" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>411</v>
       </c>
@@ -24308,8 +24720,11 @@
       <c r="AX137" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="138" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY137" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>589</v>
       </c>
@@ -24460,8 +24875,11 @@
       <c r="AX138" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="139" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY138" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>464</v>
       </c>
@@ -24612,8 +25030,11 @@
       <c r="AX139" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY139" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>647</v>
       </c>
@@ -24764,8 +25185,11 @@
       <c r="AX140" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="141" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY140" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>703</v>
       </c>
@@ -24916,8 +25340,11 @@
       <c r="AX141" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="142" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY141" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>704</v>
       </c>
@@ -25068,8 +25495,11 @@
       <c r="AX142" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="143" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY142" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>432</v>
       </c>
@@ -25220,8 +25650,11 @@
       <c r="AX143" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="144" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY143" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>611</v>
       </c>
@@ -25372,8 +25805,11 @@
       <c r="AX144" s="1">
         <v>535</v>
       </c>
-    </row>
-    <row r="145" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY144" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>366</v>
       </c>
@@ -25524,8 +25960,11 @@
       <c r="AX145" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="146" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY145" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>543</v>
       </c>
@@ -25676,8 +26115,11 @@
       <c r="AX146" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY146" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>404</v>
       </c>
@@ -25828,8 +26270,11 @@
       <c r="AX147" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY147" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>582</v>
       </c>
@@ -25980,8 +26425,11 @@
       <c r="AX148" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="149" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY148" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>706</v>
       </c>
@@ -26132,8 +26580,11 @@
       <c r="AX149" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY149" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>364</v>
       </c>
@@ -26284,8 +26735,11 @@
       <c r="AX150" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="151" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY150" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>541</v>
       </c>
@@ -26436,8 +26890,11 @@
       <c r="AX151" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="152" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY151" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>345</v>
       </c>
@@ -26588,8 +27045,11 @@
       <c r="AX152" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY152" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>514</v>
       </c>
@@ -26740,8 +27200,11 @@
       <c r="AX153" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="154" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY153" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>390</v>
       </c>
@@ -26892,8 +27355,11 @@
       <c r="AX154" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="155" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY154" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>567</v>
       </c>
@@ -27044,8 +27510,11 @@
       <c r="AX155" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY155" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>393</v>
       </c>
@@ -27196,8 +27665,11 @@
       <c r="AX156" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY156" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>570</v>
       </c>
@@ -27348,8 +27820,11 @@
       <c r="AX157" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="158" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY157" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>339</v>
       </c>
@@ -27500,8 +27975,11 @@
       <c r="AX158" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY158" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>508</v>
       </c>
@@ -27652,8 +28130,11 @@
       <c r="AX159" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="160" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY159" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>540</v>
       </c>
@@ -27804,8 +28285,11 @@
       <c r="AX160" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="161" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY160" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>482</v>
       </c>
@@ -27956,8 +28440,11 @@
       <c r="AX161" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="162" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY161" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>667</v>
       </c>
@@ -28108,8 +28595,11 @@
       <c r="AX162" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="163" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY162" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>493</v>
       </c>
@@ -28260,8 +28750,11 @@
       <c r="AX163" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="164" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY163" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>679</v>
       </c>
@@ -28412,8 +28905,11 @@
       <c r="AX164" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY164" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>447</v>
       </c>
@@ -28564,8 +29060,11 @@
       <c r="AX165" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="166" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY165" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>628</v>
       </c>
@@ -28716,8 +29215,11 @@
       <c r="AX166" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="167" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY166" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>457</v>
       </c>
@@ -28868,8 +29370,11 @@
       <c r="AX167" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="168" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY167" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>640</v>
       </c>
@@ -29020,8 +29525,11 @@
       <c r="AX168" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="169" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY168" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>355</v>
       </c>
@@ -29172,8 +29680,11 @@
       <c r="AX169" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="170" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY169" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="170" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>529</v>
       </c>
@@ -29324,8 +29835,11 @@
       <c r="AX170" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="171" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY170" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>711</v>
       </c>
@@ -29476,8 +29990,11 @@
       <c r="AX171" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="172" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY171" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>358</v>
       </c>
@@ -29628,8 +30145,11 @@
       <c r="AX172" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="173" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY172" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>532</v>
       </c>
@@ -29780,8 +30300,11 @@
       <c r="AX173" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="174" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY173" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>365</v>
       </c>
@@ -29932,8 +30455,11 @@
       <c r="AX174" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="175" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY174" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>542</v>
       </c>
@@ -30084,8 +30610,11 @@
       <c r="AX175" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="176" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY175" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>498</v>
       </c>
@@ -30236,8 +30765,11 @@
       <c r="AX176" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="177" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY176" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>683</v>
       </c>
@@ -30388,8 +30920,11 @@
       <c r="AX177" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="178" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY177" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>400</v>
       </c>
@@ -30540,8 +31075,11 @@
       <c r="AX178" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="179" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY178" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="179" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>577</v>
       </c>
@@ -30692,8 +31230,11 @@
       <c r="AX179" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="180" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY179" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>478</v>
       </c>
@@ -30844,8 +31385,11 @@
       <c r="AX180" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="181" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY180" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>664</v>
       </c>
@@ -30996,8 +31540,11 @@
       <c r="AX181" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="182" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY181" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>453</v>
       </c>
@@ -31148,8 +31695,11 @@
       <c r="AX182" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="183" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY182" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>636</v>
       </c>
@@ -31300,8 +31850,11 @@
       <c r="AX183" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="184" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY183" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>408</v>
       </c>
@@ -31452,8 +32005,11 @@
       <c r="AX184" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="185" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY184" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>586</v>
       </c>
@@ -31604,8 +32160,11 @@
       <c r="AX185" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="186" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY185" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>379</v>
       </c>
@@ -31756,8 +32315,11 @@
       <c r="AX186" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="187" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY186" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>556</v>
       </c>
@@ -31908,8 +32470,11 @@
       <c r="AX187" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="188" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY187" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>389</v>
       </c>
@@ -32060,8 +32625,11 @@
       <c r="AX188" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY188" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>566</v>
       </c>
@@ -32212,8 +32780,11 @@
       <c r="AX189" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="190" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY189" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>473</v>
       </c>
@@ -32364,8 +32935,11 @@
       <c r="AX190" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="191" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY190" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>451</v>
       </c>
@@ -32516,8 +33090,11 @@
       <c r="AX191" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="192" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY191" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>634</v>
       </c>
@@ -32668,8 +33245,11 @@
       <c r="AX192" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="193" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY192" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>433</v>
       </c>
@@ -32820,8 +33400,11 @@
       <c r="AX193" s="1">
         <v>499</v>
       </c>
-    </row>
-    <row r="194" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY193" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>612</v>
       </c>
@@ -32972,8 +33555,11 @@
       <c r="AX194" s="1">
         <v>499</v>
       </c>
-    </row>
-    <row r="195" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY194" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>708</v>
       </c>
@@ -33124,8 +33710,11 @@
       <c r="AX195" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="196" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY195" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>435</v>
       </c>
@@ -33276,8 +33865,11 @@
       <c r="AX196" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="197" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY196" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>614</v>
       </c>
@@ -33428,8 +34020,11 @@
       <c r="AX197" s="1">
         <v>296</v>
       </c>
-    </row>
-    <row r="198" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY197" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>373</v>
       </c>
@@ -33580,8 +34175,11 @@
       <c r="AX198" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="199" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY198" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>550</v>
       </c>
@@ -33732,8 +34330,11 @@
       <c r="AX199" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="200" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY199" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>452</v>
       </c>
@@ -33884,8 +34485,11 @@
       <c r="AX200" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="201" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY200" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>635</v>
       </c>
@@ -34036,8 +34640,11 @@
       <c r="AX201" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="202" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY201" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>401</v>
       </c>
@@ -34188,8 +34795,11 @@
       <c r="AX202" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="203" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY202" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>579</v>
       </c>
@@ -34340,8 +34950,11 @@
       <c r="AX203" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="204" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY203" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="204" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>442</v>
       </c>
@@ -34492,8 +35105,11 @@
       <c r="AX204" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="205" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY204" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>621</v>
       </c>
@@ -34644,8 +35260,11 @@
       <c r="AX205" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="206" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY205" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>594</v>
       </c>
@@ -34796,8 +35415,11 @@
       <c r="AX206" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="207" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY206" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="207" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>383</v>
       </c>
@@ -34948,8 +35570,11 @@
       <c r="AX207" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="208" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY207" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>560</v>
       </c>
@@ -35100,8 +35725,11 @@
       <c r="AX208" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="209" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY208" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>477</v>
       </c>
@@ -35252,8 +35880,11 @@
       <c r="AX209" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="210" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY209" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>663</v>
       </c>
@@ -35404,8 +36035,11 @@
       <c r="AX210" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="211" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY210" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>375</v>
       </c>
@@ -35556,8 +36190,11 @@
       <c r="AX211" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="212" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY211" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>552</v>
       </c>
@@ -35708,8 +36345,11 @@
       <c r="AX212" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="213" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY212" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>428</v>
       </c>
@@ -35860,8 +36500,11 @@
       <c r="AX213" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="214" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY213" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>607</v>
       </c>
@@ -36012,8 +36655,11 @@
       <c r="AX214" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="215" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY214" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>458</v>
       </c>
@@ -36164,8 +36810,11 @@
       <c r="AX215" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="216" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY215" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>641</v>
       </c>
@@ -36316,8 +36965,11 @@
       <c r="AX216" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="217" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY216" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>419</v>
       </c>
@@ -36468,8 +37120,11 @@
       <c r="AX217" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="218" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY217" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="218" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>599</v>
       </c>
@@ -36620,8 +37275,11 @@
       <c r="AX218" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="219" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY218" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="219" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>480</v>
       </c>
@@ -36772,8 +37430,11 @@
       <c r="AX219" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="220" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY219" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>665</v>
       </c>
@@ -36924,8 +37585,11 @@
       <c r="AX220" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="221" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY220" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>397</v>
       </c>
@@ -37076,8 +37740,11 @@
       <c r="AX221" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="222" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY221" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>574</v>
       </c>
@@ -37228,8 +37895,11 @@
       <c r="AX222" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="223" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY222" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>381</v>
       </c>
@@ -37380,8 +38050,11 @@
       <c r="AX223" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="224" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY223" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>558</v>
       </c>
@@ -37532,8 +38205,11 @@
       <c r="AX224" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="225" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY224" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>426</v>
       </c>
@@ -37684,8 +38360,11 @@
       <c r="AX225" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="226" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY225" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>370</v>
       </c>
@@ -37836,8 +38515,11 @@
       <c r="AX226" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="227" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY226" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>547</v>
       </c>
@@ -37988,8 +38670,11 @@
       <c r="AX227" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="228" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY227" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>469</v>
       </c>
@@ -38140,8 +38825,11 @@
       <c r="AX228" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="229" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY228" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>653</v>
       </c>
@@ -38292,8 +38980,11 @@
       <c r="AX229" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="230" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY229" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>489</v>
       </c>
@@ -38444,8 +39135,11 @@
       <c r="AX230" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="231" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY230" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>675</v>
       </c>
@@ -38596,8 +39290,11 @@
       <c r="AX231" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="232" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY231" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>387</v>
       </c>
@@ -38748,8 +39445,11 @@
       <c r="AX232" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="233" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY232" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>564</v>
       </c>
@@ -38900,8 +39600,11 @@
       <c r="AX233" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="234" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY233" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>407</v>
       </c>
@@ -39052,8 +39755,11 @@
       <c r="AX234" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="235" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY234" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>585</v>
       </c>
@@ -39204,8 +39910,11 @@
       <c r="AX235" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="236" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY235" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>363</v>
       </c>
@@ -39356,8 +40065,11 @@
       <c r="AX236" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="237" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY236" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>539</v>
       </c>
@@ -39508,8 +40220,11 @@
       <c r="AX237" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="238" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY237" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>631</v>
       </c>
@@ -39660,8 +40375,11 @@
       <c r="AX238" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="239" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY238" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>455</v>
       </c>
@@ -39812,8 +40530,11 @@
       <c r="AX239" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="240" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY239" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>638</v>
       </c>
@@ -39964,8 +40685,11 @@
       <c r="AX240" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="241" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY240" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>595</v>
       </c>
@@ -40116,8 +40840,11 @@
       <c r="AX241" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="242" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY241" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>699</v>
       </c>
@@ -40268,8 +40995,11 @@
       <c r="AX242" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="243" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY242" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>702</v>
       </c>
@@ -40420,8 +41150,11 @@
       <c r="AX243" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="244" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY243" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>440</v>
       </c>
@@ -40572,8 +41305,11 @@
       <c r="AX244" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="245" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY244" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>619</v>
       </c>
@@ -40724,8 +41460,11 @@
       <c r="AX245" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="246" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY245" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>378</v>
       </c>
@@ -40876,8 +41615,11 @@
       <c r="AX246" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="247" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY246" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="247" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>555</v>
       </c>
@@ -41028,8 +41770,11 @@
       <c r="AX247" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="248" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY247" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="248" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>361</v>
       </c>
@@ -41180,8 +41925,11 @@
       <c r="AX248" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="249" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY248" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>537</v>
       </c>
@@ -41332,8 +42080,11 @@
       <c r="AX249" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="250" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY249" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>412</v>
       </c>
@@ -41484,8 +42235,11 @@
       <c r="AX250" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="251" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY250" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>590</v>
       </c>
@@ -41636,8 +42390,11 @@
       <c r="AX251" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="252" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY251" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>698</v>
       </c>
@@ -41788,8 +42545,11 @@
       <c r="AX252" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="253" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY252" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>701</v>
       </c>
@@ -41940,8 +42700,11 @@
       <c r="AX253" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="254" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY253" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>436</v>
       </c>
@@ -42092,8 +42855,11 @@
       <c r="AX254" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="255" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY254" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>615</v>
       </c>
@@ -42244,8 +43010,11 @@
       <c r="AX255" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="256" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY255" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>476</v>
       </c>
@@ -42396,8 +43165,11 @@
       <c r="AX256" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="257" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY256" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>662</v>
       </c>
@@ -42548,8 +43320,11 @@
       <c r="AX257" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="258" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY257" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>421</v>
       </c>
@@ -42700,8 +43475,11 @@
       <c r="AX258" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="259" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY258" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>601</v>
       </c>
@@ -42852,8 +43630,11 @@
       <c r="AX259" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="260" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY259" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="260" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>410</v>
       </c>
@@ -43004,8 +43785,11 @@
       <c r="AX260" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="261" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY260" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>588</v>
       </c>
@@ -43156,8 +43940,11 @@
       <c r="AX261" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="262" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY261" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>405</v>
       </c>
@@ -43308,8 +44095,11 @@
       <c r="AX262" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="263" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY262" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="263" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>583</v>
       </c>
@@ -43460,8 +44250,11 @@
       <c r="AX263" s="1">
         <v>383</v>
       </c>
-    </row>
-    <row r="264" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY263" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="264" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>465</v>
       </c>
@@ -43612,8 +44405,11 @@
       <c r="AX264" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="265" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY264" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>648</v>
       </c>
@@ -43764,8 +44560,11 @@
       <c r="AX265" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="266" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY265" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>697</v>
       </c>
@@ -43916,8 +44715,11 @@
       <c r="AX266" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="267" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY266" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="267" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>700</v>
       </c>
@@ -44068,8 +44870,11 @@
       <c r="AX267" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="268" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY267" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>340</v>
       </c>
@@ -44220,8 +45025,11 @@
       <c r="AX268" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="269" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY268" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>509</v>
       </c>
@@ -44372,8 +45180,11 @@
       <c r="AX269" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="270" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY269" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>434</v>
       </c>
@@ -44524,8 +45335,11 @@
       <c r="AX270" s="1">
         <v>754</v>
       </c>
-    </row>
-    <row r="271" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY270" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>613</v>
       </c>
@@ -44676,8 +45490,11 @@
       <c r="AX271" s="1">
         <v>754</v>
       </c>
-    </row>
-    <row r="272" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY271" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>396</v>
       </c>
@@ -44828,8 +45645,11 @@
       <c r="AX272" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="273" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY272" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>573</v>
       </c>
@@ -44980,8 +45800,11 @@
       <c r="AX273" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="274" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY273" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>656</v>
       </c>
@@ -45132,8 +45955,11 @@
       <c r="AX274" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="275" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY274" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>717</v>
       </c>
@@ -45284,8 +46110,11 @@
       <c r="AX275" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="276" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY275" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>655</v>
       </c>
@@ -45436,8 +46265,11 @@
       <c r="AX276" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="277" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY276" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>719</v>
       </c>
@@ -45588,8 +46420,11 @@
       <c r="AX277" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="278" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY277" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="278" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>350</v>
       </c>
@@ -45740,8 +46575,11 @@
       <c r="AX278" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="279" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY278" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>519</v>
       </c>
@@ -45892,8 +46730,11 @@
       <c r="AX279" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="280" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY279" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>499</v>
       </c>
@@ -46044,8 +46885,11 @@
       <c r="AX280" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="281" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY280" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>684</v>
       </c>
@@ -46196,8 +47040,11 @@
       <c r="AX281" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="282" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY281" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>417</v>
       </c>
@@ -46348,8 +47195,11 @@
       <c r="AX282" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="283" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY282" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>597</v>
       </c>
@@ -46500,8 +47350,11 @@
       <c r="AX283" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="284" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY283" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="284" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>486</v>
       </c>
@@ -46652,8 +47505,11 @@
       <c r="AX284" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="285" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY284" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="285" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>672</v>
       </c>
@@ -46804,8 +47660,11 @@
       <c r="AX285" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="286" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY285" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>503</v>
       </c>
@@ -46956,8 +47815,11 @@
       <c r="AX286" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="287" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY286" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>688</v>
       </c>
@@ -47108,8 +47970,11 @@
       <c r="AX287" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="288" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY287" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>395</v>
       </c>
@@ -47260,8 +48125,11 @@
       <c r="AX288" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="289" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY288" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="289" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>572</v>
       </c>
@@ -47412,8 +48280,11 @@
       <c r="AX289" s="1">
         <v>411</v>
       </c>
-    </row>
-    <row r="290" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY289" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="290" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>709</v>
       </c>
@@ -47561,11 +48432,14 @@
       <c r="AW290" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AX290" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX290" s="1">
+        <v>411</v>
+      </c>
+      <c r="AY290" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="291" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>384</v>
       </c>
@@ -47716,8 +48590,11 @@
       <c r="AX291" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="292" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY291" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="292" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>561</v>
       </c>
@@ -47868,8 +48745,11 @@
       <c r="AX292" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="293" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY292" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>624</v>
       </c>
@@ -48020,8 +48900,11 @@
       <c r="AX293" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="294" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY293" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>423</v>
       </c>
@@ -48172,8 +49055,11 @@
       <c r="AX294" s="1">
         <v>425</v>
       </c>
-    </row>
-    <row r="295" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY294" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="295" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>603</v>
       </c>
@@ -48324,8 +49210,11 @@
       <c r="AX295" s="1">
         <v>425</v>
       </c>
-    </row>
-    <row r="296" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY295" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="296" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>437</v>
       </c>
@@ -48476,8 +49365,11 @@
       <c r="AX296" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="297" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY296" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>616</v>
       </c>
@@ -48628,8 +49520,11 @@
       <c r="AX297" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="298" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY297" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>439</v>
       </c>
@@ -48780,8 +49675,11 @@
       <c r="AX298" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="299" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY298" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>618</v>
       </c>
@@ -48932,8 +49830,11 @@
       <c r="AX299" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="300" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY299" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>406</v>
       </c>
@@ -49084,8 +49985,11 @@
       <c r="AX300" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="301" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY300" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="301" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>584</v>
       </c>
@@ -49236,8 +50140,11 @@
       <c r="AX301" s="1">
         <v>274</v>
       </c>
-    </row>
-    <row r="302" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY301" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="302" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>356</v>
       </c>
@@ -49388,8 +50295,11 @@
       <c r="AX302" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="303" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY302" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>530</v>
       </c>
@@ -49540,8 +50450,11 @@
       <c r="AX303" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="304" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY303" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>471</v>
       </c>
@@ -49692,8 +50605,11 @@
       <c r="AX304" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="305" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY304" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="305" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>657</v>
       </c>
@@ -49844,8 +50760,11 @@
       <c r="AX305" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="306" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY305" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="306" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>718</v>
       </c>
@@ -49996,8 +50915,11 @@
       <c r="AX306" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="307" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY306" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="307" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>445</v>
       </c>
@@ -50148,8 +51070,11 @@
       <c r="AX307" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="308" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY307" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>626</v>
       </c>
@@ -50300,8 +51225,11 @@
       <c r="AX308" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="309" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY308" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="309" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>468</v>
       </c>
@@ -50452,8 +51380,11 @@
       <c r="AX309" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="310" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY309" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>651</v>
       </c>
@@ -50604,8 +51535,11 @@
       <c r="AX310" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="311" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY310" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>715</v>
       </c>
@@ -50756,8 +51690,11 @@
       <c r="AX311" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="312" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY311" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="312" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>382</v>
       </c>
@@ -50908,8 +51845,11 @@
       <c r="AX312" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="313" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY312" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="313" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>559</v>
       </c>
@@ -51060,8 +52000,11 @@
       <c r="AX313" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="314" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY313" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>388</v>
       </c>
@@ -51212,8 +52155,11 @@
       <c r="AX314" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="315" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY314" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>565</v>
       </c>
@@ -51364,8 +52310,11 @@
       <c r="AX315" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="316" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY315" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="316" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>630</v>
       </c>
@@ -51516,8 +52465,11 @@
       <c r="AX316" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="317" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY316" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="317" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>669</v>
       </c>
@@ -51668,8 +52620,11 @@
       <c r="AX317" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="318" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY317" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>386</v>
       </c>
@@ -51820,8 +52775,11 @@
       <c r="AX318" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="319" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY318" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="319" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>563</v>
       </c>
@@ -51972,8 +52930,11 @@
       <c r="AX319" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="320" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY319" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>346</v>
       </c>
@@ -52124,8 +53085,11 @@
       <c r="AX320" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="321" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY320" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>515</v>
       </c>
@@ -52276,8 +53240,11 @@
       <c r="AX321" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="322" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY321" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>450</v>
       </c>
@@ -52428,8 +53395,11 @@
       <c r="AX322" s="1">
         <v>458</v>
       </c>
-    </row>
-    <row r="323" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY322" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="323" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>633</v>
       </c>
@@ -52580,8 +53550,11 @@
       <c r="AX323" s="1">
         <v>458</v>
       </c>
-    </row>
-    <row r="324" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY323" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="324" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>712</v>
       </c>
@@ -52729,11 +53702,14 @@
       <c r="AW324" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="AX324" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="325" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX324" s="1">
+        <v>458</v>
+      </c>
+      <c r="AY324" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="325" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>456</v>
       </c>
@@ -52884,8 +53860,11 @@
       <c r="AX325" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="326" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY325" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="326" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>639</v>
       </c>
@@ -53036,8 +54015,11 @@
       <c r="AX326" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="327" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY326" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="327" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>497</v>
       </c>
@@ -53188,8 +54170,11 @@
       <c r="AX327" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="328" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY327" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="328" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>369</v>
       </c>
@@ -53340,8 +54325,11 @@
       <c r="AX328" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="329" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY328" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>546</v>
       </c>
@@ -53492,8 +54480,11 @@
       <c r="AX329" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="330" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY329" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>368</v>
       </c>
@@ -53644,8 +54635,11 @@
       <c r="AX330" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="331" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY330" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>545</v>
       </c>
@@ -53796,8 +54790,11 @@
       <c r="AX331" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="332" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY331" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>446</v>
       </c>
@@ -53948,8 +54945,11 @@
       <c r="AX332" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="333" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY332" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="333" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>627</v>
       </c>
@@ -54100,8 +55100,11 @@
       <c r="AX333" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="334" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY333" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="334" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>500</v>
       </c>
@@ -54252,8 +55255,11 @@
       <c r="AX334" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="335" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY334" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="335" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>685</v>
       </c>
@@ -54404,8 +55410,11 @@
       <c r="AX335" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="336" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY335" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>459</v>
       </c>
@@ -54556,8 +55565,11 @@
       <c r="AX336" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="337" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY336" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="337" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>642</v>
       </c>
@@ -54708,8 +55720,11 @@
       <c r="AX337" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="338" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY337" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>425</v>
       </c>
@@ -54860,8 +55875,11 @@
       <c r="AX338" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="339" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY338" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="339" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>605</v>
       </c>
@@ -55012,8 +56030,11 @@
       <c r="AX339" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="340" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY339" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="340" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>348</v>
       </c>
@@ -55164,8 +56185,11 @@
       <c r="AX340" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="341" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY340" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="341" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>517</v>
       </c>
@@ -55316,8 +56340,11 @@
       <c r="AX341" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="342" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY341" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>438</v>
       </c>
@@ -55468,8 +56495,11 @@
       <c r="AX342" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="343" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY342" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>617</v>
       </c>
@@ -55620,8 +56650,11 @@
       <c r="AX343" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="344" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY343" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>359</v>
       </c>
@@ -55772,8 +56805,11 @@
       <c r="AX344" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="345" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY344" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>535</v>
       </c>
@@ -55924,8 +56960,11 @@
       <c r="AX345" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="346" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY345" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>488</v>
       </c>
@@ -56076,8 +57115,11 @@
       <c r="AX346" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="347" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY346" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>674</v>
       </c>
@@ -56228,8 +57270,11 @@
       <c r="AX347" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="348" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY347" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="348" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>394</v>
       </c>
@@ -56380,8 +57425,11 @@
       <c r="AX348" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="349" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY348" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="349" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>571</v>
       </c>
@@ -56532,8 +57580,11 @@
       <c r="AX349" s="1">
         <v>440</v>
       </c>
-    </row>
-    <row r="350" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY349" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="350" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>652</v>
       </c>
@@ -56684,8 +57735,11 @@
       <c r="AX350" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="351" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY350" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="351" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>341</v>
       </c>
@@ -56836,8 +57890,11 @@
       <c r="AX351" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="352" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY351" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="352" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>510</v>
       </c>
@@ -56988,8 +58045,11 @@
       <c r="AX352" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="353" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY352" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="353" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>506</v>
       </c>
@@ -57140,8 +58200,11 @@
       <c r="AX353" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="354" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY353" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>691</v>
       </c>
@@ -57292,8 +58355,11 @@
       <c r="AX354" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="355" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY354" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>485</v>
       </c>
@@ -57444,8 +58510,11 @@
       <c r="AX355" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="356" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY355" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="356" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>671</v>
       </c>
@@ -57596,8 +58665,11 @@
       <c r="AX356" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="357" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY356" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="357" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>578</v>
       </c>
@@ -57748,8 +58820,11 @@
       <c r="AX357" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="358" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY357" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>467</v>
       </c>
@@ -57900,8 +58975,11 @@
       <c r="AX358" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="359" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY358" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="359" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>650</v>
       </c>
@@ -58052,8 +59130,11 @@
       <c r="AX359" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="360" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY359" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>504</v>
       </c>
@@ -58204,8 +59285,11 @@
       <c r="AX360" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="361" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY360" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>689</v>
       </c>
@@ -58356,8 +59440,11 @@
       <c r="AX361" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="362" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY361" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>625</v>
       </c>
@@ -58508,8 +59595,11 @@
       <c r="AX362" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="363" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY362" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="363" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>484</v>
       </c>
@@ -58660,8 +59750,11 @@
       <c r="AX363" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="364" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY363" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="364" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>670</v>
       </c>
@@ -58812,8 +59905,11 @@
       <c r="AX364" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="365" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY364" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>463</v>
       </c>
@@ -58964,8 +60060,11 @@
       <c r="AX365" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="366" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY365" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="366" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>696</v>
       </c>
@@ -59116,8 +60215,11 @@
       <c r="AX366" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="367" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY366" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>695</v>
       </c>
@@ -59268,8 +60370,11 @@
       <c r="AX367" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="368" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY367" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="368" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>646</v>
       </c>
@@ -59420,8 +60525,11 @@
       <c r="AX368" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="369" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY368" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="369" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>461</v>
       </c>
@@ -59572,8 +60680,11 @@
       <c r="AX369" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="370" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY369" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="370" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>644</v>
       </c>
@@ -59724,8 +60835,11 @@
       <c r="AX370" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="371" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY370" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>416</v>
       </c>
@@ -59876,8 +60990,11 @@
       <c r="AX371" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="372" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY371" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>596</v>
       </c>
@@ -60028,8 +61145,11 @@
       <c r="AX372" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="373" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY372" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="373" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>505</v>
       </c>
@@ -60180,8 +61300,11 @@
       <c r="AX373" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="374" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY373" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="374" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>690</v>
       </c>
@@ -60332,8 +61455,11 @@
       <c r="AX374" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="375" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY374" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="375" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>424</v>
       </c>
@@ -60484,8 +61610,11 @@
       <c r="AX375" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="376" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY375" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="376" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>604</v>
       </c>
@@ -60636,8 +61765,11 @@
       <c r="AX376" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="377" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY376" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="377" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>707</v>
       </c>
@@ -60788,8 +61920,11 @@
       <c r="AX377" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="378" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY377" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="378" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>374</v>
       </c>
@@ -60940,8 +62075,11 @@
       <c r="AX378" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="379" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY378" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="379" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>551</v>
       </c>
@@ -61092,8 +62230,11 @@
       <c r="AX379" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="380" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY379" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="380" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>533</v>
       </c>
@@ -61244,8 +62385,11 @@
       <c r="AX380" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="381" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY380" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="381" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>502</v>
       </c>
@@ -61396,8 +62540,11 @@
       <c r="AX381" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="382" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY381" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="382" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>687</v>
       </c>
@@ -61548,8 +62695,11 @@
       <c r="AX382" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="383" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY382" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="383" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>357</v>
       </c>
@@ -61700,8 +62850,11 @@
       <c r="AX383" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="384" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY383" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>531</v>
       </c>
@@ -61851,6 +63004,9 @@
       </c>
       <c r="AX384" s="1">
         <v>52</v>
+      </c>
+      <c r="AY384" s="3">
+        <v>87</v>
       </c>
     </row>
     <row r="385" spans="10:48" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -71833,8 +72989,8 @@
       <c r="AV971" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:AZ972">
-    <sortCondition ref="A2:A972"/>
+  <sortState ref="A2:AY971">
+    <sortCondition ref="A2:A971"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -71845,8 +73001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH73"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2:AW73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71898,8 +73054,8 @@
     <col min="47" max="47" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="9.140625" style="7"/>
+    <col min="50" max="51" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.25">
@@ -72053,7 +73209,9 @@
       <c r="AX1" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="AY1" s="4"/>
+      <c r="AY1" s="3" t="s">
+        <v>849</v>
+      </c>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
       <c r="BB1" s="4"/>
@@ -72210,7 +73368,9 @@
       <c r="AX2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY2" s="7"/>
+      <c r="AY2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ2" s="7"/>
       <c r="BA2" s="7"/>
       <c r="BB2" s="7"/>
@@ -72371,7 +73531,9 @@
       <c r="AX3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY3" s="4"/>
+      <c r="AY3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC3" s="4"/>
       <c r="BH3" s="4"/>
     </row>
@@ -72526,7 +73688,9 @@
       <c r="AX4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY4" s="4"/>
+      <c r="AY4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4"/>
       <c r="BB4" s="4"/>
@@ -72688,6 +73852,9 @@
       <c r="AX5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD5" s="4"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="4"/>
@@ -72845,7 +74012,9 @@
       <c r="AX6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY6" s="7"/>
+      <c r="AY6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ6" s="7"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="7"/>
@@ -73003,6 +74172,9 @@
       <c r="AX7" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH7" s="7"/>
     </row>
     <row r="8" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -73156,6 +74328,9 @@
       <c r="AX8" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH8" s="7"/>
     </row>
     <row r="9" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -73309,7 +74484,9 @@
       <c r="AX9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY9" s="7"/>
+      <c r="AY9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC9" s="7"/>
       <c r="BH9" s="7"/>
     </row>
@@ -73464,6 +74641,9 @@
       <c r="AX10" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -73616,7 +74796,9 @@
       <c r="AX11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY11" s="7"/>
+      <c r="AY11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ11" s="7"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
@@ -73773,7 +74955,9 @@
       <c r="AX12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY12" s="7"/>
+      <c r="AY12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ12" s="7"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
@@ -73930,7 +75114,9 @@
       <c r="AX13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY13" s="7"/>
+      <c r="AY13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ13" s="7"/>
       <c r="BA13" s="7"/>
       <c r="BB13" s="7"/>
@@ -74087,6 +75273,9 @@
       <c r="AX14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC14" s="7"/>
     </row>
     <row r="15" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -74240,7 +75429,9 @@
       <c r="AX15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY15" s="7"/>
+      <c r="AY15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ15" s="7"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
@@ -74397,6 +75588,9 @@
       <c r="AX16" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY16" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -74549,6 +75743,9 @@
       <c r="AX17" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY17" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -74701,6 +75898,9 @@
       <c r="AX18" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY18" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -74853,6 +76053,9 @@
       <c r="AX19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH19" s="7"/>
     </row>
     <row r="20" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -75006,6 +76209,9 @@
       <c r="AX20" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY20" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -75158,6 +76364,9 @@
       <c r="AX21" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH21" s="7"/>
     </row>
     <row r="22" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -75311,7 +76520,9 @@
       <c r="AX22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY22" s="7"/>
+      <c r="AY22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH22" s="7"/>
     </row>
     <row r="23" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -75465,6 +76676,9 @@
       <c r="AX23" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY23" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -75617,7 +76831,9 @@
       <c r="AX24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY24" s="4"/>
+      <c r="AY24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
       <c r="BB24" s="4"/>
@@ -75779,6 +76995,9 @@
       <c r="AX25" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY25" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -75931,7 +77150,9 @@
       <c r="AX26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY26" s="7"/>
+      <c r="AY26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="7"/>
@@ -76088,7 +77309,9 @@
       <c r="AX27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY27" s="7"/>
+      <c r="AY27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ27" s="7"/>
       <c r="BA27" s="7"/>
       <c r="BB27" s="7"/>
@@ -76245,6 +77468,9 @@
       <c r="AX28" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY28" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -76397,6 +77623,9 @@
       <c r="AX29" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY29" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -76549,6 +77778,9 @@
       <c r="AX30" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY30" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH30" s="7"/>
     </row>
     <row r="31" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -76702,7 +77934,9 @@
       <c r="AX31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY31" s="7"/>
+      <c r="AY31" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ31" s="7"/>
       <c r="BA31" s="7"/>
       <c r="BB31" s="7"/>
@@ -76859,6 +78093,9 @@
       <c r="AX32" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY32" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -77011,7 +78248,9 @@
       <c r="AX33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY33" s="7"/>
+      <c r="AY33" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -77164,6 +78403,9 @@
       <c r="AX34" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY34" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="35" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -77316,6 +78558,9 @@
       <c r="AX35" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY35" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="36" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -77466,6 +78711,9 @@
         <v>24</v>
       </c>
       <c r="AX36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY36" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BD36" s="7"/>
@@ -77624,6 +78872,9 @@
       <c r="AX37" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD37" s="7"/>
       <c r="BE37" s="7"/>
       <c r="BF37" s="7"/>
@@ -77780,7 +79031,9 @@
       <c r="AX38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY38" s="7"/>
+      <c r="AY38" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ38" s="7"/>
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
@@ -77942,6 +79195,9 @@
       <c r="AX39" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY39" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ39" s="7"/>
       <c r="BA39" s="7"/>
       <c r="BB39" s="7"/>
@@ -78102,7 +79358,9 @@
       <c r="AX40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY40" s="7"/>
+      <c r="AY40" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD40" s="7"/>
       <c r="BE40" s="7"/>
       <c r="BF40" s="7"/>
@@ -78259,6 +79517,9 @@
       <c r="AX41" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY41" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC41" s="7"/>
     </row>
     <row r="42" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -78412,7 +79673,9 @@
       <c r="AX42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY42" s="7"/>
+      <c r="AY42" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ42" s="7"/>
       <c r="BA42" s="7"/>
       <c r="BB42" s="7"/>
@@ -78570,6 +79833,9 @@
       <c r="AX43" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY43" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="44" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -78722,6 +79988,9 @@
       <c r="AX44" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY44" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -78874,7 +80143,9 @@
       <c r="AX45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY45" s="7"/>
+      <c r="AY45" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ45" s="7"/>
       <c r="BA45" s="7"/>
       <c r="BB45" s="7"/>
@@ -79032,7 +80303,9 @@
       <c r="AX46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY46" s="4"/>
+      <c r="AY46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="4"/>
       <c r="BB46" s="4"/>
@@ -79193,6 +80466,9 @@
       <c r="AX47" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY47" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD47" s="4"/>
       <c r="BE47" s="4"/>
       <c r="BF47" s="4"/>
@@ -79350,7 +80626,9 @@
       <c r="AX48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY48" s="4"/>
+      <c r="AY48" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ48" s="4"/>
       <c r="BA48" s="4"/>
       <c r="BB48" s="4"/>
@@ -79511,7 +80789,9 @@
       <c r="AX49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY49" s="4"/>
+      <c r="AY49" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ49" s="4"/>
       <c r="BA49" s="4"/>
       <c r="BB49" s="4"/>
@@ -79673,7 +80953,9 @@
       <c r="AX50" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY50" s="7"/>
+      <c r="AY50" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ50" s="7"/>
       <c r="BA50" s="7"/>
       <c r="BB50" s="7"/>
@@ -79830,6 +81112,9 @@
       <c r="AX51" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY51" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH51" s="7"/>
     </row>
     <row r="52" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -79983,6 +81268,9 @@
       <c r="AX52" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY52" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ52" s="7"/>
       <c r="BA52" s="7"/>
       <c r="BB52" s="7"/>
@@ -80138,6 +81426,9 @@
       <c r="AX53" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY53" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH53" s="7"/>
     </row>
     <row r="54" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -80291,6 +81582,9 @@
       <c r="AX54" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY54" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH54" s="7"/>
     </row>
     <row r="55" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -80444,6 +81738,9 @@
       <c r="AX55" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY55" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH55" s="7"/>
     </row>
     <row r="56" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -80597,6 +81894,9 @@
       <c r="AX56" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY56" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BH56" s="7"/>
     </row>
     <row r="57" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -80748,6 +82048,9 @@
         <v>24</v>
       </c>
       <c r="AX57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BD57" s="7"/>
@@ -80906,6 +82209,9 @@
       <c r="AX58" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY58" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD58" s="7"/>
       <c r="BE58" s="7"/>
       <c r="BF58" s="7"/>
@@ -81062,7 +82368,9 @@
       <c r="AX59" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY59" s="7"/>
+      <c r="AY59" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ59" s="7"/>
       <c r="BA59" s="7"/>
       <c r="BB59" s="7"/>
@@ -81217,6 +82525,9 @@
         <v>24</v>
       </c>
       <c r="AX60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY60" s="3" t="s">
         <v>24</v>
       </c>
       <c r="BD60" s="7"/>
@@ -81376,7 +82687,9 @@
       <c r="AX61" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY61" s="4"/>
+      <c r="AY61" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ61" s="4"/>
       <c r="BA61" s="4"/>
       <c r="BB61" s="4"/>
@@ -81534,7 +82847,9 @@
       <c r="AX62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY62" s="4"/>
+      <c r="AY62" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC62" s="4"/>
       <c r="BH62" s="4"/>
     </row>
@@ -81689,7 +83004,9 @@
       <c r="AX63" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY63" s="4"/>
+      <c r="AY63" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BC63" s="4"/>
       <c r="BH63" s="4"/>
     </row>
@@ -81844,7 +83161,9 @@
       <c r="AX64" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY64" s="4"/>
+      <c r="AY64" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
       <c r="BB64" s="4"/>
@@ -82002,7 +83321,9 @@
       <c r="AX65" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY65" s="4"/>
+      <c r="AY65" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
       <c r="BB65" s="4"/>
@@ -82159,7 +83480,9 @@
       <c r="AX66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY66" s="4"/>
+      <c r="AY66" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
       <c r="BB66" s="4"/>
@@ -82317,7 +83640,9 @@
       <c r="AX67" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY67" s="4"/>
+      <c r="AY67" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ67" s="4"/>
       <c r="BA67" s="4"/>
       <c r="BB67" s="4"/>
@@ -82475,7 +83800,9 @@
       <c r="AX68" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY68" s="4"/>
+      <c r="AY68" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ68" s="4"/>
       <c r="BA68" s="4"/>
       <c r="BB68" s="4"/>
@@ -82633,6 +83960,9 @@
       <c r="AX69" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY69" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ69" s="4"/>
       <c r="BA69" s="4"/>
       <c r="BB69" s="4"/>
@@ -82789,7 +84119,9 @@
       <c r="AX70" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY70" s="4"/>
+      <c r="AY70" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ70" s="4"/>
       <c r="BA70" s="4"/>
       <c r="BB70" s="4"/>
@@ -82947,6 +84279,9 @@
       <c r="AX71" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="AY71" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="BD71" s="4"/>
       <c r="BE71" s="4"/>
       <c r="BF71" s="4"/>
@@ -83104,7 +84439,9 @@
       <c r="AX72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY72" s="4"/>
+      <c r="AY72" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ72" s="4"/>
       <c r="BA72" s="4"/>
       <c r="BB72" s="4"/>
@@ -83261,7 +84598,9 @@
       <c r="AX73" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY73" s="4"/>
+      <c r="AY73" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AZ73" s="4"/>
       <c r="BA73" s="4"/>
       <c r="BB73" s="4"/>
